--- a/variable-selection/soep-feature-selection-xls.xlsx
+++ b/variable-selection/soep-feature-selection-xls.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="18040" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="32980" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdatensatz" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="681">
   <si>
     <t>never Changing Person ID</t>
   </si>
@@ -2075,7 +2075,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2149,13 +2149,16 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2423,11 +2426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2435,7 +2438,7 @@
     <col min="1" max="1" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2010</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2477,8 +2480,11 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2500,8 +2506,11 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2523,8 +2532,11 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2546,8 +2558,11 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2569,8 +2584,11 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2592,8 +2610,11 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2615,8 +2636,11 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2638,8 +2662,11 @@
       <c r="G9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2661,8 +2688,11 @@
       <c r="G10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2684,8 +2714,11 @@
       <c r="G11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2707,8 +2740,11 @@
       <c r="G12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2730,8 +2766,11 @@
       <c r="G13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2753,8 +2792,11 @@
       <c r="G14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2818,11 @@
       <c r="G15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2799,8 +2844,11 @@
       <c r="G16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -2822,8 +2870,11 @@
       <c r="G17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -2845,8 +2896,11 @@
       <c r="G18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -2868,8 +2922,11 @@
       <c r="G19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2891,8 +2948,11 @@
       <c r="G20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -2914,8 +2974,11 @@
       <c r="G21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -2937,8 +3000,11 @@
       <c r="G22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -2960,8 +3026,11 @@
       <c r="G23" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -2983,8 +3052,11 @@
       <c r="G24" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3006,8 +3078,11 @@
       <c r="G25" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -3029,8 +3104,11 @@
       <c r="G26" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -3052,8 +3130,11 @@
       <c r="G27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -3075,8 +3156,11 @@
       <c r="G28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>174</v>
       </c>
@@ -3098,8 +3182,11 @@
       <c r="G29" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>181</v>
       </c>
@@ -3121,8 +3208,11 @@
       <c r="G30" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -3144,8 +3234,11 @@
       <c r="G31" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -3167,8 +3260,11 @@
       <c r="G32" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -3190,8 +3286,11 @@
       <c r="G33" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -3213,8 +3312,11 @@
       <c r="G34" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -3236,8 +3338,11 @@
       <c r="G35" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -3259,8 +3364,11 @@
       <c r="G36" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -3282,8 +3390,11 @@
       <c r="G37" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>220</v>
       </c>
@@ -3305,8 +3416,11 @@
       <c r="G38" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -3328,8 +3442,11 @@
       <c r="G39" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>234</v>
       </c>
@@ -3351,8 +3468,11 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>236</v>
       </c>
@@ -3374,8 +3494,11 @@
       <c r="G41" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>238</v>
       </c>
@@ -3397,8 +3520,11 @@
       <c r="G42" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -3420,8 +3546,11 @@
       <c r="G43" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>247</v>
       </c>
@@ -3443,8 +3572,11 @@
       <c r="G44" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>249</v>
       </c>
@@ -3466,8 +3598,11 @@
       <c r="G45" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>251</v>
       </c>
@@ -3489,8 +3624,11 @@
       <c r="G46" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -3512,8 +3650,11 @@
       <c r="G47" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -3535,8 +3676,11 @@
       <c r="G48" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>257</v>
       </c>
@@ -3558,8 +3702,11 @@
       <c r="G49" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>259</v>
       </c>
@@ -3581,8 +3728,11 @@
       <c r="G50" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>261</v>
       </c>
@@ -3604,8 +3754,11 @@
       <c r="G51" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>266</v>
       </c>
@@ -3627,8 +3780,11 @@
       <c r="G52" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>271</v>
       </c>
@@ -3650,8 +3806,11 @@
       <c r="G53" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>276</v>
       </c>
@@ -3673,8 +3832,11 @@
       <c r="G54" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>281</v>
       </c>
@@ -3696,8 +3858,11 @@
       <c r="G55" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>286</v>
       </c>
@@ -3719,8 +3884,11 @@
       <c r="G56" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -3742,8 +3910,11 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>296</v>
       </c>
@@ -3765,8 +3936,11 @@
       <c r="G58" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -3788,8 +3962,11 @@
       <c r="G59" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>306</v>
       </c>
@@ -3811,8 +3988,11 @@
       <c r="G60" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>311</v>
       </c>
@@ -3834,8 +4014,11 @@
       <c r="G61" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>318</v>
       </c>
@@ -3857,8 +4040,11 @@
       <c r="G62" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>325</v>
       </c>
@@ -3880,8 +4066,11 @@
       <c r="G63" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>327</v>
       </c>
@@ -3903,8 +4092,11 @@
       <c r="G64" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>334</v>
       </c>
@@ -3926,8 +4118,11 @@
       <c r="G65" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>341</v>
       </c>
@@ -3949,8 +4144,11 @@
       <c r="G66" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -3972,8 +4170,11 @@
       <c r="G67" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>355</v>
       </c>
@@ -3995,8 +4196,11 @@
       <c r="G68" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>359</v>
       </c>
@@ -4018,8 +4222,11 @@
       <c r="G69" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>364</v>
       </c>
@@ -4041,8 +4248,11 @@
       <c r="G70" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>369</v>
       </c>
@@ -4064,8 +4274,11 @@
       <c r="G71" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>374</v>
       </c>
@@ -4087,8 +4300,11 @@
       <c r="G72" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>377</v>
       </c>
@@ -4110,8 +4326,11 @@
       <c r="G73" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>380</v>
       </c>
@@ -4133,8 +4352,11 @@
       <c r="G74" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>383</v>
       </c>
@@ -4157,7 +4379,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>385</v>
       </c>
@@ -4180,7 +4402,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>388</v>
       </c>
@@ -4202,8 +4424,11 @@
       <c r="G77" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>395</v>
       </c>
@@ -4225,8 +4450,11 @@
       <c r="G78" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>402</v>
       </c>
@@ -4248,8 +4476,11 @@
       <c r="G79" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>409</v>
       </c>
@@ -4271,8 +4502,11 @@
       <c r="G80" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -4294,8 +4528,11 @@
       <c r="G81" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>422</v>
       </c>
@@ -4317,8 +4554,11 @@
       <c r="G82" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>429</v>
       </c>
@@ -4340,8 +4580,11 @@
       <c r="G83" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>436</v>
       </c>
@@ -4363,8 +4606,11 @@
       <c r="G84" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>443</v>
       </c>
@@ -4386,8 +4632,11 @@
       <c r="G85" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>450</v>
       </c>
@@ -4409,8 +4658,11 @@
       <c r="G86" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>457</v>
       </c>
@@ -4432,8 +4684,11 @@
       <c r="G87" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>464</v>
       </c>
@@ -4455,8 +4710,11 @@
       <c r="G88" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>471</v>
       </c>
@@ -4478,8 +4736,11 @@
       <c r="G89" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>478</v>
       </c>
@@ -4501,8 +4762,11 @@
       <c r="G90" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>485</v>
       </c>
@@ -4524,8 +4788,11 @@
       <c r="G91" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>492</v>
       </c>
@@ -4547,8 +4814,11 @@
       <c r="G92" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>499</v>
       </c>
@@ -4570,8 +4840,11 @@
       <c r="G93" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>506</v>
       </c>
@@ -4593,8 +4866,11 @@
       <c r="G94" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>513</v>
       </c>
@@ -4616,8 +4892,11 @@
       <c r="G95" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>520</v>
       </c>
@@ -4637,6 +4916,9 @@
         <v>522</v>
       </c>
       <c r="G96" t="s">
+        <v>521</v>
+      </c>
+      <c r="H96" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4662,6 +4944,9 @@
       <c r="G97" t="s">
         <v>528</v>
       </c>
+      <c r="H97" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -4685,6 +4970,9 @@
       <c r="G98" t="s">
         <v>535</v>
       </c>
+      <c r="H98" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -4708,6 +4996,9 @@
       <c r="G99" t="s">
         <v>542</v>
       </c>
+      <c r="H99" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -4731,7 +5022,6 @@
       <c r="G100" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -4755,7 +5045,6 @@
       <c r="G101" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -4779,7 +5068,6 @@
       <c r="G102" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -4803,7 +5091,6 @@
       <c r="G103" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -4827,7 +5114,6 @@
       <c r="G104" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -4851,6 +5137,9 @@
       <c r="G105" t="s">
         <v>667</v>
       </c>
+      <c r="H105" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -4874,6 +5163,9 @@
       <c r="G106" t="s">
         <v>668</v>
       </c>
+      <c r="H106" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -4897,6 +5189,9 @@
       <c r="G107" t="s">
         <v>669</v>
       </c>
+      <c r="H107" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -4920,6 +5215,9 @@
       <c r="G108" t="s">
         <v>670</v>
       </c>
+      <c r="H108" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -4943,6 +5241,9 @@
       <c r="G109" t="s">
         <v>671</v>
       </c>
+      <c r="H109" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -4966,6 +5267,9 @@
       <c r="G110" t="s">
         <v>672</v>
       </c>
+      <c r="H110" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -4989,6 +5293,9 @@
       <c r="G111" t="s">
         <v>673</v>
       </c>
+      <c r="H111" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -5012,8 +5319,11 @@
       <c r="G112" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>591</v>
       </c>
@@ -5035,8 +5345,11 @@
       <c r="G113" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>592</v>
       </c>
@@ -5058,8 +5371,11 @@
       <c r="G114" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>593</v>
       </c>
@@ -5081,8 +5397,11 @@
       <c r="G115" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>594</v>
       </c>
@@ -5104,8 +5423,11 @@
       <c r="G116" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>595</v>
       </c>
@@ -5127,8 +5449,11 @@
       <c r="G117" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>596</v>
       </c>
@@ -5148,6 +5473,9 @@
         <v>666</v>
       </c>
       <c r="G118" t="s">
+        <v>680</v>
+      </c>
+      <c r="H118" t="s">
         <v>680</v>
       </c>
     </row>

--- a/variable-selection/soep-feature-selection-xls.xlsx
+++ b/variable-selection/soep-feature-selection-xls.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="32980" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="6520" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdatensatz" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2427,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="118" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5479,6 +5479,12 @@
         <v>680</v>
       </c>
     </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <f>117-25</f>
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
